--- a/Pawnshop/Pawnshop/Import Template.xlsx
+++ b/Pawnshop/Pawnshop/Import Template.xlsx
@@ -644,8 +644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="AB15" sqref="AB15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -766,7 +766,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>28</v>
       </c>
@@ -837,7 +837,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>30</v>
       </c>
@@ -908,7 +908,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>30</v>
       </c>
@@ -979,7 +979,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>32</v>
       </c>
@@ -1050,7 +1050,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>34</v>
       </c>
@@ -1121,7 +1121,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>36</v>
       </c>

--- a/Pawnshop/Pawnshop/Import Template.xlsx
+++ b/Pawnshop/Pawnshop/Import Template.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="94">
   <si>
     <t>First Name</t>
   </si>
@@ -287,6 +287,15 @@
   </si>
   <si>
     <t>252220</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>A</t>
   </si>
 </sst>
 </file>
@@ -642,11 +651,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB11"/>
+  <dimension ref="A1:AC11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="AB15" sqref="AB15"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -680,7 +687,7 @@
     <col min="28" max="28" width="7.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -765,8 +772,11 @@
       <c r="AB1" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="AC1" s="1" t="s">
+        <v>92</v>
+      </c>
     </row>
-    <row r="2" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>28</v>
       </c>
@@ -836,8 +846,11 @@
       <c r="AB2" s="2" t="s">
         <v>59</v>
       </c>
+      <c r="AC2" t="s">
+        <v>93</v>
+      </c>
     </row>
-    <row r="3" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>30</v>
       </c>
@@ -865,8 +878,11 @@
       <c r="K3" s="2" t="s">
         <v>61</v>
       </c>
+      <c r="L3" s="2" t="s">
+        <v>66</v>
+      </c>
       <c r="M3" s="2" t="s">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>75</v>
@@ -907,8 +923,11 @@
       <c r="AB3" s="2" t="s">
         <v>59</v>
       </c>
+      <c r="AC3" t="s">
+        <v>93</v>
+      </c>
     </row>
-    <row r="4" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>30</v>
       </c>
@@ -978,8 +997,11 @@
       <c r="AB4" s="2" t="s">
         <v>59</v>
       </c>
+      <c r="AC4" t="s">
+        <v>93</v>
+      </c>
     </row>
-    <row r="5" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>32</v>
       </c>
@@ -1049,8 +1071,11 @@
       <c r="AB5" s="2" t="s">
         <v>59</v>
       </c>
+      <c r="AC5" t="s">
+        <v>93</v>
+      </c>
     </row>
-    <row r="6" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>34</v>
       </c>
@@ -1120,8 +1145,11 @@
       <c r="AB6" s="2" t="s">
         <v>59</v>
       </c>
+      <c r="AC6" t="s">
+        <v>93</v>
+      </c>
     </row>
-    <row r="7" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>36</v>
       </c>
@@ -1191,8 +1219,11 @@
       <c r="AB7" s="2" t="s">
         <v>90</v>
       </c>
+      <c r="AC7" t="s">
+        <v>93</v>
+      </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>41</v>
       </c>
@@ -1262,8 +1293,11 @@
       <c r="AB8" s="2" t="s">
         <v>59</v>
       </c>
+      <c r="AC8" t="s">
+        <v>93</v>
+      </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>39</v>
       </c>
@@ -1333,8 +1367,11 @@
       <c r="AB9" s="2" t="s">
         <v>59</v>
       </c>
+      <c r="AC9" t="s">
+        <v>93</v>
+      </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>39</v>
       </c>
@@ -1404,8 +1441,11 @@
       <c r="AB10" s="2" t="s">
         <v>59</v>
       </c>
+      <c r="AC10" t="s">
+        <v>93</v>
+      </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>39</v>
       </c>
@@ -1474,6 +1514,9 @@
       </c>
       <c r="AB11" s="2" t="s">
         <v>59</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/Pawnshop/Pawnshop/Import Template.xlsx
+++ b/Pawnshop/Pawnshop/Import Template.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="93">
   <si>
     <t>First Name</t>
   </si>
@@ -287,9 +287,6 @@
   </si>
   <si>
     <t>252220</t>
-  </si>
-  <si>
-    <t>x</t>
   </si>
   <si>
     <t>Status</t>
@@ -653,7 +650,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -773,7 +772,7 @@
         <v>25</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
@@ -847,7 +846,7 @@
         <v>59</v>
       </c>
       <c r="AC2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
@@ -878,11 +877,8 @@
       <c r="K3" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>75</v>
@@ -924,7 +920,7 @@
         <v>59</v>
       </c>
       <c r="AC3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
@@ -998,7 +994,7 @@
         <v>59</v>
       </c>
       <c r="AC4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
@@ -1072,7 +1068,7 @@
         <v>59</v>
       </c>
       <c r="AC5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
@@ -1146,7 +1142,7 @@
         <v>59</v>
       </c>
       <c r="AC6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
@@ -1220,7 +1216,7 @@
         <v>90</v>
       </c>
       <c r="AC7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
@@ -1294,7 +1290,7 @@
         <v>59</v>
       </c>
       <c r="AC8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
@@ -1368,7 +1364,7 @@
         <v>59</v>
       </c>
       <c r="AC9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.25">
@@ -1442,7 +1438,7 @@
         <v>59</v>
       </c>
       <c r="AC10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
@@ -1516,7 +1512,7 @@
         <v>59</v>
       </c>
       <c r="AC11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/Pawnshop/Pawnshop/Import Template.xlsx
+++ b/Pawnshop/Pawnshop/Import Template.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="91">
   <si>
     <t>First Name</t>
   </si>
@@ -287,12 +287,6 @@
   </si>
   <si>
     <t>252220</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>A</t>
   </si>
 </sst>
 </file>
@@ -648,10 +642,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC11"/>
+  <dimension ref="A1:AB11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="Y4" sqref="Y4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -686,7 +680,7 @@
     <col min="28" max="28" width="7.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -771,11 +765,8 @@
       <c r="AB1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AC1" s="1" t="s">
-        <v>91</v>
-      </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>28</v>
       </c>
@@ -845,11 +836,8 @@
       <c r="AB2" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="AC2" t="s">
-        <v>92</v>
-      </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>30</v>
       </c>
@@ -919,11 +907,8 @@
       <c r="AB3" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="AC3" t="s">
-        <v>92</v>
-      </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>30</v>
       </c>
@@ -993,11 +978,8 @@
       <c r="AB4" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="AC4" t="s">
-        <v>92</v>
-      </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>32</v>
       </c>
@@ -1067,11 +1049,8 @@
       <c r="AB5" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="AC5" t="s">
-        <v>92</v>
-      </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>34</v>
       </c>
@@ -1141,11 +1120,8 @@
       <c r="AB6" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="AC6" t="s">
-        <v>92</v>
-      </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>36</v>
       </c>
@@ -1215,11 +1191,8 @@
       <c r="AB7" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="AC7" t="s">
-        <v>92</v>
-      </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>41</v>
       </c>
@@ -1289,11 +1262,8 @@
       <c r="AB8" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="AC8" t="s">
-        <v>92</v>
-      </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>39</v>
       </c>
@@ -1363,11 +1333,8 @@
       <c r="AB9" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="AC9" t="s">
-        <v>92</v>
-      </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>39</v>
       </c>
@@ -1437,11 +1404,8 @@
       <c r="AB10" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="AC10" t="s">
-        <v>92</v>
-      </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>39</v>
       </c>
@@ -1510,9 +1474,6 @@
       </c>
       <c r="AB11" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="AC11" t="s">
-        <v>92</v>
       </c>
     </row>
   </sheetData>
